--- a/ValueSet-swallow-procedures-vs.xlsx
+++ b/ValueSet-swallow-procedures-vs.xlsx
@@ -25,7 +25,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://testSK.org/ValueSet/swallow-procedures-vs</t>
+    <t>http://tecnomod-um.org/ValueSet/swallow-procedures-vs</t>
   </si>
   <si>
     <t>Version</t>
@@ -73,7 +73,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>UMU (http://testSK.org/umu)</t>
+    <t>UMU (http://tecnomod-um.org)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -127,7 +127,7 @@
     <t>All codes</t>
   </si>
   <si>
-    <t>http://testSK.org/CodeSystem/swallow-procedures-cs</t>
+    <t>http://tecnomod-um.org/CodeSystem/swallow-procedures-cs</t>
   </si>
 </sst>
 </file>
